--- a/public/equipment_data.xlsx
+++ b/public/equipment_data.xlsx
@@ -67,44 +67,44 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="14.3"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="17.6"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="13.200000000000001"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="18.700000000000003"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="18.700000000000003"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="28.6"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="18.700000000000003"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>equipment_name</t>
         </is>
       </c>
       <c r="B1" s="0" t="inlineStr">
         <is>
-          <t>Code</t>
+          <t>equipment_code</t>
         </is>
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
-          <t>Serial Number</t>
+          <t>equipment_serial_number</t>
         </is>
       </c>
       <c r="D1" s="0" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>equipment_type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Asus</t>
+          <t>Iphone</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -114,12 +114,12 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>AS-1234</t>
+          <t>AP-1234</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>Laptop</t>
+          <t>mobile</t>
         </is>
       </c>
     </row>
@@ -136,7 +136,7 @@
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>HP-9876</t>
+          <t>HP-1234</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
@@ -158,7 +158,7 @@
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>EP-345678</t>
+          <t>EP-1234</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
@@ -180,7 +180,7 @@
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>AP-901234</t>
+          <t>AP-1235</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
@@ -202,34 +202,12 @@
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>HP-567890</t>
+          <t>HP-1235</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
           <t>Scanner</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>Iphone</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>EQ-1234</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>IP-1234</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>mobile</t>
         </is>
       </c>
     </row>
